--- a/biology/Botanique/Vieill/Vieill..xlsx
+++ b/biology/Botanique/Vieill/Vieill..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Vieillard  (9 avril 1819 - 7 novembre 1896) est un naturaliste, explorateur et botaniste français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Vieillard est né le 9 avril 1819 à Périers (département de la Manche). Il a effectué ses études de médecine à l'école de médecine de Caen.
 Employé comme médecin de marine sur un navire marchand de 1854 à 1857, il a récolté des plantes à Tahiti avec Jean Armand Isidore Pancher.
 En 1861, il se rendit en Nouvelle-Calédonie, en faisant escale au cap de Bonne-Espérance, sur l'île de La Réunion, à Sydney et en Nouvelle-Zélande. De 1862 à 1867, il explora la Nouvelle-Calédonie où son travail l'avait conduit, et herborisa avec le naturaliste Émile Deplanche. Sa collection de plantes est importante : près de 12 000 spécimens qu'il ramena en France pour les distribuer à des botanistes européens.
 Dans les années 1860, il publia de nombreux ouvrages sur les plantes de ces régions et devient un botaniste réputé. Il devint professeur de botanique et directeur du jardin botanique de Caen de 1871 à 1895.
-En 1863 il partage le prix Barbier de l’Académie des sciences avec Jules Lépine[2],[3].
-Il mourut près d'Avranches, à Marcey-les-Grèves, le 7 novembre 1896[4],[5].
+En 1863 il partage le prix Barbier de l’Académie des sciences avec Jules Lépine,.
+Il mourut près d'Avranches, à Marcey-les-Grèves, le 7 novembre 1896,.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eugène Vieillard, Études sur les genres Oxerae et Deplancheae, Ed. A. Hardel, 1862.
 Eugène Vieillard, Plantes utiles de la Nouvelle-Calédonie, Ed. L. Martinet, 1862.
@@ -583,7 +599,9 @@
           <t>Liste partielle des espèces qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les espèces végétales suivantes ont été nommées en son honneur :
 Aidia vieillardii (Baill.) Ridsdale : plante de la famille des Rubiacées, endémique de Nouvelle-Calédonie
